--- a/原玉超4月加班记录表.xlsx
+++ b/原玉超4月加班记录表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\各种\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D780F533-F136-4F28-9DE1-95FFBF0E3FDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E0C1AB-AE5A-45E7-A4DA-08E0458A62F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>透后小结权限设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透析单确认下机修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耗材出库表单修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +121,14 @@
   </si>
   <si>
     <t>病情记录体格检查页面样式调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透析单透后小结样式调整及弹框大小修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者手机端费用管理页面构建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
     <col min="1" max="1" width="21.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -639,7 +639,7 @@
     </row>
     <row r="3" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6">
         <v>43557</v>
@@ -648,12 +648,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6">
         <v>43558</v>
@@ -662,12 +662,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <v>43564</v>
@@ -676,12 +676,12 @@
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6">
         <v>43565</v>
@@ -690,21 +690,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
-        <v>43566</v>
+        <v>43571</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="10"/>
@@ -712,16 +712,16 @@
     </row>
     <row r="8" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6">
-        <v>43537</v>
+        <v>43572</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
@@ -729,16 +729,16 @@
     </row>
     <row r="9" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6">
-        <v>43538</v>
+        <v>43573</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="10"/>
@@ -746,7 +746,7 @@
     </row>
     <row r="10" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6">
         <v>43543</v>
@@ -755,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="10"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="11" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>43544</v>
@@ -772,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>43545</v>
@@ -787,13 +787,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
         <v>43549</v>
@@ -802,12 +802,12 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6">
         <v>43550</v>
@@ -816,12 +816,12 @@
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6">
         <v>43551</v>
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
     </row>
     <row r="17" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6">
         <v>43552</v>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
